--- a/Python/friends.xlsx
+++ b/Python/friends.xlsx
@@ -34,7 +34,7 @@
     <t>gunnu</t>
   </si>
   <si>
-    <t>manav</t>
+    <t>alex</t>
   </si>
   <si>
     <t>chandigarh</t>
@@ -46,7 +46,7 @@
     <t>ludhiana</t>
   </si>
   <si>
-    <t>rajkot</t>
+    <t>NewYork</t>
   </si>
 </sst>
 </file>
